--- a/data/trans_camb/P1421-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1421-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.22079332190323</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.01092844942948978</v>
+        <v>0.01092844942949048</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.441314815725466</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.569176712411762</v>
+        <v>-4.697744609902636</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.080656191124326</v>
+        <v>-5.177715585564174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.824675210248016</v>
+        <v>-3.341745785163428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.104764526700992</v>
+        <v>-0.9451824292113411</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1985410920795395</v>
+        <v>-0.1266674907162821</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.167751377354788</v>
+        <v>2.38070695468853</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.667798161476334</v>
+        <v>-1.909866528878444</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.440441347192885</v>
+        <v>-1.693506210667538</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6723415696437141</v>
+        <v>0.9477317277012757</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6908124576281623</v>
+        <v>0.8380456743831066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09857245554870961</v>
+        <v>0.2002450590121488</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.974789768990789</v>
+        <v>2.952705342971288</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.581179519092659</v>
+        <v>8.236065438241608</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.251348587648433</v>
+        <v>8.736248861830848</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.33484048351442</v>
+        <v>10.47091433032511</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.37020372291448</v>
+        <v>3.505804830738643</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.729839804529955</v>
+        <v>3.601692132814351</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.739657905747247</v>
+        <v>5.77246237082178</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.6708418397145464</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.003301190186497583</v>
+        <v>0.003301190186497793</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.7229015289876307</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8870201297721647</v>
+        <v>-0.8639887601228891</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9325872027212678</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6233834758029158</v>
+        <v>-0.6919364907646608</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1785809535838056</v>
+        <v>-0.1879190709019847</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08512938939330748</v>
+        <v>-0.06622244425755834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2287966727518238</v>
+        <v>0.2618383949182295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.324055301465711</v>
+        <v>-0.3740430748250509</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2817408010601403</v>
+        <v>-0.3407273055181633</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09659727441159376</v>
+        <v>0.1223869835431105</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.610616657337971</v>
+        <v>0.8396430688940291</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5640054306270038</v>
+        <v>0.6165527546773042</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.714762384770848</v>
+        <v>1.602034912996342</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.511196616588208</v>
+        <v>3.003419605696125</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.259632386786381</v>
+        <v>3.111180049632597</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.949810879291672</v>
+        <v>3.821314990636111</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.194783727519015</v>
+        <v>1.247264444075647</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.364523495040899</v>
+        <v>1.295179688669436</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.228318540457158</v>
+        <v>2.055880273308952</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-2.79094923359871</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.604723300724281</v>
+        <v>5.604723300724282</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8739857666367782</v>
+        <v>-1.057226967880357</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.258748073562824</v>
+        <v>-1.331646992211196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.621746464682456</v>
+        <v>3.393815810032921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.872498513964169</v>
+        <v>-7.03256739433809</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.073542781346964</v>
+        <v>-8.281562107633377</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.484516262244131</v>
+        <v>1.359053610810513</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.72215401491121</v>
+        <v>-3.720614767259481</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.412968655549204</v>
+        <v>-4.484170815647611</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.23534005936952</v>
+        <v>3.387866027287983</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.575938255717946</v>
+        <v>1.560770919682547</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6899584836395608</v>
+        <v>0.765712224264723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.059396562148477</v>
+        <v>8.894441207764816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.7024165635220612</v>
+        <v>-0.6813730018618595</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.394313768995302</v>
+        <v>-2.333091670369861</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.951605428399692</v>
+        <v>8.808605103480669</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.1165265158807294</v>
+        <v>-0.2450859553598159</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.169162589236448</v>
+        <v>-1.200844864298963</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.969439536528728</v>
+        <v>8.397926639049407</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7783328713233393</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8854292494138575</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>1.932280827193967</v>
+        <v>1.587391346609289</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6649509443664817</v>
+        <v>-0.6784555514584638</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.777343139762992</v>
+        <v>-0.7859219559558132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1236952964224093</v>
+        <v>0.1182689187254534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.643233992654381</v>
+        <v>-0.634705223234832</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7482991284685834</v>
+        <v>-0.7542987122707445</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5227924116298134</v>
+        <v>0.5728317588950138</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1027,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6.093389470816914</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>3.654117965469092</v>
-      </c>
+        <v>5.105165375344493</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>30.71038581541577</v>
+        <v>27.92283972998173</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.07469083633520547</v>
+        <v>-0.07300403413382685</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3194164827981264</v>
+        <v>-0.3322935123363667</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.251420962815464</v>
+        <v>1.269518272994436</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.02336080793227682</v>
+        <v>-0.03252628000408014</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.284115167443753</v>
+        <v>-0.2945303709306058</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.090364836913064</v>
+        <v>2.215972983580916</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1070,7 @@
         <v>-1.714493320422607</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.788484210928494</v>
+        <v>2.788484210928492</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.1203164189355684</v>
@@ -1103,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.939065730703204</v>
+        <v>-2.91071097272741</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.917167418532966</v>
+        <v>-3.965279292466557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.03934324596885518</v>
+        <v>0.1943619778199056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.036969129382539</v>
+        <v>-2.880021161666445</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.282896633269301</v>
+        <v>-3.312572512994338</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.528450503291332</v>
+        <v>4.697681631645866</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.067159222747073</v>
+        <v>-2.198648287779524</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.829503200222202</v>
+        <v>-2.973243151501587</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.453345252501715</v>
+        <v>3.297029774095972</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.110478555192826</v>
+        <v>1.31814817362926</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3076898079198677</v>
+        <v>-0.3053215587596527</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.568944916545805</v>
+        <v>5.746657881477645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.269686793685459</v>
+        <v>3.215643450493148</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.654775514080084</v>
+        <v>2.720930417691836</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.36199191114796</v>
+        <v>11.82433480005162</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.425907401845407</v>
+        <v>1.594012382808388</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.722015421260301</v>
+        <v>0.8154132168653639</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.23934438515788</v>
+        <v>8.221360655328303</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1175,7 @@
         <v>-0.8538960288114362</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.38879257548132</v>
+        <v>1.388792575481319</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.02857699499027085</v>
@@ -1208,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8468660832583301</v>
+        <v>-0.8204318837712998</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1293100044594997</v>
+        <v>-0.120641535713349</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5505789605727542</v>
+        <v>-0.5409360959850157</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6107715552519415</v>
+        <v>-0.5970345533545531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7128672191285994</v>
+        <v>0.7372646672054501</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.532287491284523</v>
+        <v>-0.546386963823051</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7033817790601254</v>
+        <v>-0.7086613835020295</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7585196331552869</v>
+        <v>0.6909712236987986</v>
       </c>
     </row>
     <row r="21">
@@ -1243,29 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.412386121564564</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr"/>
+        <v>1.994991101060329</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6624839292663635</v>
+      </c>
       <c r="E21" s="6" t="n">
-        <v>5.302917105967643</v>
+        <v>6.787766942817743</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.304389884403392</v>
+        <v>1.322194730456846</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.010243179857375</v>
+        <v>1.148932378191256</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.770879008223373</v>
+        <v>4.416480373118998</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.675446245322065</v>
+        <v>0.7742185431484733</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3638326524494299</v>
+        <v>0.4124105670397214</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.683547609012119</v>
+        <v>3.709714131222391</v>
       </c>
     </row>
     <row r="22">
@@ -1304,7 +1302,7 @@
         <v>1.776015425316065</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.543092719367907</v>
+        <v>1.543092719367906</v>
       </c>
     </row>
     <row r="23">
@@ -1315,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.218985918663047</v>
+        <v>-2.204461539861001</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.037838656171026</v>
+        <v>-2.050549616527122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.861216502320826</v>
+        <v>-1.853991099585599</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.119803724557896</v>
+        <v>1.304764534635095</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.00805584053698747</v>
+        <v>-0.039328176491935</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2796730464108764</v>
+        <v>-0.1206252940111455</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.491608811568352</v>
+        <v>0.3378674856822941</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3360366932841511</v>
+        <v>-0.3603949162381931</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2928781911784697</v>
+        <v>-0.2451448941262435</v>
       </c>
     </row>
     <row r="24">
@@ -1350,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.960070081870441</v>
+        <v>1.840901124920937</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.956836910356902</v>
+        <v>2.062824453255057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.291737599562613</v>
+        <v>2.380944862217023</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.659188175543072</v>
+        <v>8.43592192937165</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.265585197260767</v>
+        <v>7.145654739041066</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.543532416479183</v>
+        <v>5.489728623067118</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.645318850228852</v>
+        <v>4.355355189540753</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.945984977247457</v>
+        <v>3.781193991738553</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.301668069275363</v>
+        <v>3.376727517409367</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1407,7 @@
         <v>0.5887919768402438</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5115724783317843</v>
+        <v>0.5115724783317841</v>
       </c>
     </row>
     <row r="26">
@@ -1420,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7742350209984119</v>
+        <v>-0.7942947828475964</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7164771099337298</v>
+        <v>-0.7186451251982556</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6757746327946872</v>
+        <v>-0.7006447166960024</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1134704794601181</v>
+        <v>0.1820037214418778</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06162992561577416</v>
+        <v>-0.05567098582212888</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09295528218613427</v>
+        <v>-0.04979911904724146</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08659622276945607</v>
+        <v>0.07098000625327149</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1307182831020192</v>
+        <v>-0.1065539184954007</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1002688365571762</v>
+        <v>-0.08762367892267831</v>
       </c>
     </row>
     <row r="27">
@@ -1455,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.144152759242623</v>
+        <v>2.703433242128347</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.507160300428808</v>
+        <v>2.97946965083244</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.680693233363948</v>
+        <v>2.885011051629126</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.867583722679706</v>
+        <v>3.073737561860243</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.563371152617895</v>
+        <v>2.35442342474704</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.862563762928262</v>
+        <v>2.018638535707792</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.079609925515903</v>
+        <v>1.991994423577668</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.798579587157436</v>
+        <v>1.788679346265152</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.524105377258944</v>
+        <v>1.548327053398378</v>
       </c>
     </row>
     <row r="28">
@@ -1509,7 +1507,7 @@
         <v>5.796249361733841</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.582028709176704</v>
+        <v>8.582028709176702</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.490820346424302</v>
@@ -1529,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.272359326873695</v>
+        <v>-2.194046077973617</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.869049422917434</v>
+        <v>-1.418551286104591</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9387176311690211</v>
+        <v>0.9354119190491943</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.651786261483833</v>
+        <v>2.808029890052014</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.526750107998804</v>
+        <v>1.830377817103277</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.766681007021532</v>
+        <v>4.318958102271049</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9607753516280706</v>
+        <v>1.226183646190959</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.053841613171533</v>
+        <v>0.8770565364569018</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.612190954715381</v>
+        <v>3.909506977539973</v>
       </c>
     </row>
     <row r="30">
@@ -1564,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.126841547147474</v>
+        <v>2.035928032027821</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.219404498630209</v>
+        <v>3.643537630954665</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.196208420746819</v>
+        <v>6.849602417003036</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.11542953014834</v>
+        <v>12.19175080892107</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.54282010552059</v>
+        <v>10.75927442438586</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.32230763506933</v>
+        <v>12.17867722015655</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.184299548454095</v>
+        <v>6.253795164354928</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.160570908298183</v>
+        <v>6.40793181036481</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.500779110605329</v>
+        <v>8.700290213874437</v>
       </c>
     </row>
     <row r="31">
@@ -1614,7 +1612,7 @@
         <v>1.963288448182289</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2.906879393065884</v>
+        <v>2.906879393065883</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.605448495399061</v>
@@ -1635,28 +1633,28 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.8376621679477353</v>
+        <v>-0.8097750584852061</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.06706092265739905</v>
+        <v>-0.06670662988877235</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3685125956656639</v>
+        <v>0.412127966735026</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1969095085051683</v>
+        <v>0.254769088378327</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.805029617981078</v>
+        <v>0.631848842269619</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2080033884697228</v>
+        <v>0.2861775876117262</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2563104573780317</v>
+        <v>0.1933804377147482</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.9142697046356526</v>
+        <v>1.043665267544557</v>
       </c>
     </row>
     <row r="33">
@@ -1667,27 +1665,27 @@
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr"/>
-      <c r="D33" s="6" t="n">
-        <v>7.042201695904915</v>
-      </c>
-      <c r="E33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="n">
+        <v>14.14423273849256</v>
+      </c>
       <c r="F33" s="6" t="n">
-        <v>8.94928014357043</v>
+        <v>8.951364546078258</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>7.265729012298469</v>
+        <v>7.634090548269336</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>9.600634109279735</v>
+        <v>10.17221239376304</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>5.062419214423431</v>
+        <v>5.534987016537618</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>5.119762496015984</v>
+        <v>5.381622510424278</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>6.761107229383221</v>
+        <v>7.655604578705061</v>
       </c>
     </row>
     <row r="34">
@@ -1708,7 +1706,7 @@
         <v>-1.258797699245264</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.817001909579541</v>
+        <v>2.81700190957954</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-1.42621895018607</v>
@@ -1737,31 +1735,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.718011268259184</v>
+        <v>-4.472882850577238</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.140004163449273</v>
+        <v>-4.305407413987231</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.7070838874336626</v>
+        <v>-0.6272983333277588</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.059728177303679</v>
+        <v>-5.002143849407868</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.07837816020939</v>
+        <v>-4.205138997699978</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.101151292709009</v>
+        <v>4.05761377524864</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.794773803179314</v>
+        <v>-3.867944129640486</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.061656608630994</v>
+        <v>-3.263203071304754</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.734773842302037</v>
+        <v>2.733506259173499</v>
       </c>
     </row>
     <row r="36">
@@ -1772,31 +1770,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.9291207492306676</v>
+        <v>1.146725613356346</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.590971687793069</v>
+        <v>1.547731853441967</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.922485369148025</v>
+        <v>6.423983200897632</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.390816117641783</v>
+        <v>2.256091518311311</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.689518443062755</v>
+        <v>4.125325450463569</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.8444376752117</v>
+        <v>13.05341754957077</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.9276134302132588</v>
+        <v>0.6048814053402921</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.257171460096601</v>
+        <v>1.86016685490035</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.576465580906397</v>
+        <v>8.280465235895083</v>
       </c>
     </row>
     <row r="37">
@@ -1813,7 +1811,7 @@
         <v>-0.3651524205028884</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.8171567730549286</v>
+        <v>0.8171567730549282</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.2336625351202723</v>
@@ -1842,31 +1840,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.869178581294159</v>
+        <v>-0.8893424195066288</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8741048857886871</v>
+        <v>-0.8426258953923111</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2418998421837194</v>
+        <v>-0.2097317536230714</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6407481733088126</v>
+        <v>-0.6063009199691051</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5131840495960146</v>
+        <v>-0.5418995644065885</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3957665941335317</v>
+        <v>0.4037513788183285</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6352691631518607</v>
+        <v>-0.618960448209349</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5065557590983509</v>
+        <v>-0.5392815830019557</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.393897925172479</v>
+        <v>0.3851375642560914</v>
       </c>
     </row>
     <row r="39">
@@ -1877,31 +1875,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5966882432620703</v>
+        <v>0.9182159673873952</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.186702718776976</v>
+        <v>0.955574049500734</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.815555185985668</v>
+        <v>3.309246608238694</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6539818931271221</v>
+        <v>0.6145560062577904</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9499479388977126</v>
+        <v>0.9451466722241424</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.075509349104001</v>
+        <v>3.145424867987455</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2883057735597306</v>
+        <v>0.2257925055654733</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7017703156275009</v>
+        <v>0.5530405275628735</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.444984420575594</v>
+        <v>2.315174198187918</v>
       </c>
     </row>
     <row r="40">
@@ -1940,7 +1938,7 @@
         <v>1.191964120370131</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>9.401613394491823</v>
+        <v>9.401613394491822</v>
       </c>
     </row>
     <row r="41">
@@ -1951,31 +1949,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.915320748303152</v>
+        <v>-1.961144422961862</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.143746306400261</v>
+        <v>-1.305659258613395</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.122448919551136</v>
+        <v>3.092481441169849</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.712611148784066</v>
+        <v>-1.834043095964197</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.335707372703535</v>
+        <v>-0.3350850407430144</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>10.20988358411116</v>
+        <v>10.08817873312132</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.272436799138851</v>
+        <v>-1.38759884211226</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.2496656702780138</v>
+        <v>-0.3814932680211521</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>7.570659110757314</v>
+        <v>7.482575296211113</v>
       </c>
     </row>
     <row r="42">
@@ -1986,31 +1984,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.9546134023931039</v>
+        <v>0.8351194630535226</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.028070133206518</v>
+        <v>2.01888267504411</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.380971634467702</v>
+        <v>8.285841825067349</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.814764355228799</v>
+        <v>2.703284240158011</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.154551601821858</v>
+        <v>4.416258739439033</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>16.08970190563529</v>
+        <v>16.00358295214554</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.433700730905206</v>
+        <v>1.399137638805814</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.652213402911727</v>
+        <v>2.663330955115519</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.5300153191016</v>
+        <v>11.4885924031881</v>
       </c>
     </row>
     <row r="43">
@@ -2045,7 +2043,7 @@
         <v>0.4155782020219276</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>3.27787181159022</v>
+        <v>3.277871811590219</v>
       </c>
     </row>
     <row r="44">
@@ -2056,31 +2054,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7111777410699776</v>
+        <v>-0.7189502288316341</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4473027967115272</v>
+        <v>-0.5059577835198781</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.08811184017016</v>
+        <v>1.111893492674216</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3376943732738568</v>
+        <v>-0.3624006387582666</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07430564834251507</v>
+        <v>-0.103113621031916</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.994786371067997</v>
+        <v>1.924814831022676</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.358859676051495</v>
+        <v>-0.3876261509318186</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.08346569628799898</v>
+        <v>-0.1166152746752282</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>2.059994356026592</v>
+        <v>1.960730333554319</v>
       </c>
     </row>
     <row r="45">
@@ -2091,31 +2089,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.150884977450899</v>
+        <v>0.9066981100475292</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.164634614687576</v>
+        <v>1.80062935475423</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>7.96000615307297</v>
+        <v>8.29130551752867</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.04055684266817</v>
+        <v>0.9295163748092765</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.470600360682069</v>
+        <v>1.514513315627726</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>6.171398363562277</v>
+        <v>5.997718896350368</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6874207206089531</v>
+        <v>0.6570559781419024</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.21691525372497</v>
+        <v>1.19309440875223</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>5.257070709564481</v>
+        <v>5.314411293155915</v>
       </c>
     </row>
     <row r="46">
@@ -2145,7 +2143,7 @@
         <v>-3.71221987099287</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-2.54188497825941</v>
+        <v>-2.541884978259408</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-4.025079380124785</v>
@@ -2165,31 +2163,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.948788420512354</v>
+        <v>-4.983298928988597</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.57182006271707</v>
+        <v>-4.479646693019149</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.270041374379654</v>
+        <v>-4.301206582562438</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-6.915713101952303</v>
+        <v>-6.718647477905063</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.079056069782805</v>
+        <v>-5.979048175156471</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.031098968306206</v>
+        <v>-4.632049963689068</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-5.51333295491488</v>
+        <v>-5.525427528628475</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.821612654262662</v>
+        <v>-4.73030898425341</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.954132903474826</v>
+        <v>-4.052789001755951</v>
       </c>
     </row>
     <row r="48">
@@ -2200,31 +2198,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.064919740595239</v>
+        <v>-2.141647779898038</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.425571347495269</v>
+        <v>-1.3903966011226</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.12298115832981</v>
+        <v>-1.096085177135827</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.181964648804119</v>
+        <v>-2.100268813872965</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-1.539961038760817</v>
+        <v>-1.220340367089544</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.1086929309048349</v>
+        <v>-0.06633971217141775</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.722012280042078</v>
+        <v>-2.662454931191222</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.90725208003667</v>
+        <v>-1.740348309152991</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.002684745195298</v>
+        <v>-1.200496311322428</v>
       </c>
     </row>
     <row r="49">
@@ -2250,7 +2248,7 @@
         <v>-0.4796728485057375</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3284485430464357</v>
+        <v>-0.3284485430464356</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.6819131267070215</v>
@@ -2270,31 +2268,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.9689523167032325</v>
+        <v>-0.9674261325164326</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8854220532568696</v>
+        <v>-0.8781785072896141</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8428944740813459</v>
+        <v>-0.8404355720658776</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.7470964045808917</v>
+        <v>-0.7329287182341397</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6593473780501081</v>
+        <v>-0.6634174822594596</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5413391795771828</v>
+        <v>-0.5336632112397969</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.787147882114944</v>
+        <v>-0.8023441673789398</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6989888843619434</v>
+        <v>-0.7006236447352513</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5825856166549407</v>
+        <v>-0.5977655767069223</v>
       </c>
     </row>
     <row r="51">
@@ -2305,31 +2303,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.6370046020977463</v>
+        <v>-0.6629031514055311</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.4381144175064409</v>
+        <v>-0.4170933105125398</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3255235125857144</v>
+        <v>-0.321850365122467</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.3399730756538561</v>
+        <v>-0.3362802933492958</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.2154107802607066</v>
+        <v>-0.1986651535831359</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.0161683477879769</v>
+        <v>-0.0168565703888554</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.5243100073566792</v>
+        <v>-0.5284499927364527</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3795762253732488</v>
+        <v>-0.3492221392768556</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2051815978633035</v>
+        <v>-0.2332086260422159</v>
       </c>
     </row>
     <row r="52">
@@ -2359,7 +2357,7 @@
         <v>-0.2747297026142501</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>5.560531944133392</v>
+        <v>5.560531944133395</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.7976395069569875</v>
@@ -2368,7 +2366,7 @@
         <v>-0.6114475671145938</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>3.922075476606081</v>
+        <v>3.922075476606082</v>
       </c>
     </row>
     <row r="53">
@@ -2379,31 +2377,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.861807972096228</v>
+        <v>-1.82676206729858</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.668570563628703</v>
+        <v>-1.721496384345382</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.222842597644031</v>
+        <v>1.216300183103215</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.524428837184474</v>
+        <v>-1.431673208833506</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.39432021205168</v>
+        <v>-1.348069909886904</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>4.365509299080435</v>
+        <v>4.309026225195145</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.478436190713938</v>
+        <v>-1.423563423626848</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.280586348785991</v>
+        <v>-1.259459109570519</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>3.142831835625874</v>
+        <v>3.125984444100368</v>
       </c>
     </row>
     <row r="54">
@@ -2414,31 +2412,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.5258186368196953</v>
+        <v>-0.4995453562121528</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.302007183058819</v>
+        <v>-0.3495595054318212</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.13023041927194</v>
+        <v>3.015326277076642</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.7120528617148562</v>
+        <v>0.7481717109130649</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.8318070751301946</v>
+        <v>0.7973596829538033</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>6.720808968090984</v>
+        <v>6.733492784066965</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-0.1474531351638777</v>
+        <v>-0.1621380881410046</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.0536074035613584</v>
+        <v>0.0563703858291805</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4.750508626997241</v>
+        <v>4.69157994627459</v>
       </c>
     </row>
     <row r="55">
@@ -2464,7 +2462,7 @@
         <v>-0.04763289115219851</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.9640901960103178</v>
+        <v>0.9640901960103183</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.1942000396714633</v>
@@ -2473,7 +2471,7 @@
         <v>-0.1488681801177096</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.954901564564112</v>
+        <v>0.9549015645641123</v>
       </c>
     </row>
     <row r="56">
@@ -2484,31 +2482,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.6632572227453066</v>
+        <v>-0.6469558193659449</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.5864887559027333</v>
+        <v>-0.5985093568700395</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.4105623856405544</v>
+        <v>0.4153727965714087</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2477183773832455</v>
+        <v>-0.2300365525401592</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2197193349954492</v>
+        <v>-0.2163198626312338</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6898520190668137</v>
+        <v>0.6747083667264735</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3301731520051614</v>
+        <v>-0.3206505097638545</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2848973510030631</v>
+        <v>-0.281724802623603</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.6994928907849443</v>
+        <v>0.6950635297388281</v>
       </c>
     </row>
     <row r="57">
@@ -2519,31 +2517,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.2500143374350113</v>
+        <v>-0.2304075557297869</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1374876678257789</v>
+        <v>-0.1405638890072482</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.481908134798763</v>
+        <v>1.485482073053837</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1431219113019396</v>
+        <v>0.1469955581464062</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1596079863449956</v>
+        <v>0.1509171469437261</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.320781424020667</v>
+        <v>1.30521017874595</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.04099131099691473</v>
+        <v>-0.04333589602832195</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.01556491326214574</v>
+        <v>0.01344714273321715</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.271084844346914</v>
+        <v>1.240622737229634</v>
       </c>
     </row>
     <row r="58">
